--- a/one_word_terms/one_word_terms_cleaned.xlsx
+++ b/one_word_terms/one_word_terms_cleaned.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19878" windowHeight="9810"/>
+    <workbookView windowWidth="15455" windowHeight="11604"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>аргумент</t>
   </si>
   <si>
-    <t>архитектур</t>
+    <t>архитектура</t>
   </si>
   <si>
     <t>аспект</t>
@@ -164,7 +164,7 @@
     <t>аффикс</t>
   </si>
   <si>
-    <t>баз</t>
+    <t>база</t>
   </si>
   <si>
     <t>байес</t>
@@ -185,10 +185,10 @@
     <t>бенчмарк</t>
   </si>
   <si>
-    <t>библиотек</t>
-  </si>
-  <si>
-    <t>биграмм</t>
+    <t>библиотека</t>
+  </si>
+  <si>
+    <t>биграмма</t>
   </si>
   <si>
     <t>бизнес</t>
@@ -215,7 +215,7 @@
     <t>будущее</t>
   </si>
   <si>
-    <t>букв</t>
+    <t>буква</t>
   </si>
   <si>
     <t>бустинг</t>
@@ -416,10 +416,10 @@
     <t>гиперпараметр</t>
   </si>
   <si>
-    <t>гипотез</t>
-  </si>
-  <si>
-    <t>гистограмм</t>
+    <t>гипотеза</t>
+  </si>
+  <si>
+    <t>гистограмма</t>
   </si>
   <si>
     <t>глубин</t>
@@ -440,7 +440,7 @@
     <t>грамм</t>
   </si>
   <si>
-    <t>грамматик</t>
+    <t>грамматика</t>
   </si>
   <si>
     <t>грамматичность</t>
@@ -515,7 +515,7 @@
     <t>диагноз</t>
   </si>
   <si>
-    <t>диаграмм</t>
+    <t>диаграмма</t>
   </si>
   <si>
     <t>диалог</t>
@@ -554,7 +554,7 @@
     <t>дополнение</t>
   </si>
   <si>
-    <t>доразметк</t>
+    <t>доразметка</t>
   </si>
   <si>
     <t>дубликат</t>
@@ -851,7 +851,7 @@
     <t>кодирование</t>
   </si>
   <si>
-    <t>кодировк</t>
+    <t>кодировка</t>
   </si>
   <si>
     <t>кодировщик</t>
@@ -977,10 +977,10 @@
     <t>лейбл</t>
   </si>
   <si>
-    <t>лексик</t>
-  </si>
-  <si>
-    <t>лемм</t>
+    <t>лексика</t>
+  </si>
+  <si>
+    <t>лемма</t>
   </si>
   <si>
     <t>лемматизация</t>
@@ -989,19 +989,19 @@
     <t>лес</t>
   </si>
   <si>
-    <t>лингвистик</t>
+    <t>лингвистика</t>
   </si>
   <si>
     <t>линейк</t>
   </si>
   <si>
-    <t>литератур</t>
+    <t>литература</t>
   </si>
   <si>
     <t>личность</t>
   </si>
   <si>
-    <t>логик</t>
+    <t>логика</t>
   </si>
   <si>
     <t>логит</t>
@@ -1031,13 +1031,13 @@
     <t>маркер</t>
   </si>
   <si>
-    <t>маск</t>
+    <t>маска</t>
   </si>
   <si>
     <t>маскирование</t>
   </si>
   <si>
-    <t>маскировк</t>
+    <t>маскировка</t>
   </si>
   <si>
     <t>массив</t>
@@ -1052,7 +1052,7 @@
     <t>материал</t>
   </si>
   <si>
-    <t>матриц</t>
+    <t>матрица</t>
   </si>
   <si>
     <t>матчинг</t>
@@ -1061,7 +1061,7 @@
     <t>машин</t>
   </si>
   <si>
-    <t>меди</t>
+    <t>медиа</t>
   </si>
   <si>
     <t>мер</t>
@@ -1073,7 +1073,7 @@
     <t>местоположение</t>
   </si>
   <si>
-    <t>метк</t>
+    <t>метка</t>
   </si>
   <si>
     <t>метод</t>
@@ -1085,7 +1085,7 @@
     <t>методология</t>
   </si>
   <si>
-    <t>метрик</t>
+    <t>метрика</t>
   </si>
   <si>
     <t>механизм</t>
@@ -1235,7 +1235,7 @@
     <t>номер</t>
   </si>
   <si>
-    <t>норм</t>
+    <t>норма</t>
   </si>
   <si>
     <t>нормализация</t>
@@ -1271,7 +1271,7 @@
     <t>обоснование</t>
   </si>
   <si>
-    <t>обработк</t>
+    <t>обработка</t>
   </si>
   <si>
     <t>обработчик</t>
@@ -1340,7 +1340,7 @@
     <t>операция</t>
   </si>
   <si>
-    <t>опечатк</t>
+    <t>опечатка</t>
   </si>
   <si>
     <t>описание</t>
@@ -1469,7 +1469,7 @@
     <t>параметризация</t>
   </si>
   <si>
-    <t>парафраз</t>
+    <t>парафраза</t>
   </si>
   <si>
     <t>парафразер</t>
@@ -1604,7 +1604,7 @@
     <t>подслой</t>
   </si>
   <si>
-    <t>подстройк</t>
+    <t>подстройка</t>
   </si>
   <si>
     <t>подсчет</t>
@@ -1682,7 +1682,7 @@
     <t>постановк</t>
   </si>
   <si>
-    <t>постобработк</t>
+    <t>постобработка</t>
   </si>
   <si>
     <t>постпроцессинг</t>
@@ -1724,7 +1724,7 @@
     <t>предмет</t>
   </si>
   <si>
-    <t>предобработк</t>
+    <t>предобработка</t>
   </si>
   <si>
     <t>предобучение</t>
@@ -1832,7 +1832,7 @@
     <t>прогон</t>
   </si>
   <si>
-    <t>программ</t>
+    <t>программа</t>
   </si>
   <si>
     <t>программирование</t>
@@ -1970,7 +1970,7 @@
     <t>размерность</t>
   </si>
   <si>
-    <t>разметк</t>
+    <t>разметка</t>
   </si>
   <si>
     <t>размещение</t>
@@ -1979,7 +1979,7 @@
     <t>разнообразие</t>
   </si>
   <si>
-    <t>разработк</t>
+    <t>разработка</t>
   </si>
   <si>
     <t>разработчик</t>
@@ -2036,7 +2036,7 @@
     <t>расширение</t>
   </si>
   <si>
-    <t>расшифровк</t>
+    <t>расшифровка</t>
   </si>
   <si>
     <t>реализация</t>
@@ -2078,7 +2078,7 @@
     <t>релевантность</t>
   </si>
   <si>
-    <t>реплик</t>
+    <t>реплика</t>
   </si>
   <si>
     <t>репозиторий</t>
@@ -2105,7 +2105,7 @@
     <t>решение</t>
   </si>
   <si>
-    <t>рифм</t>
+    <t>рифма</t>
   </si>
   <si>
     <t>роль</t>
@@ -2165,7 +2165,7 @@
     <t>сегментация</t>
   </si>
   <si>
-    <t>семантик</t>
+    <t>семантика</t>
   </si>
   <si>
     <t>семейство</t>
@@ -2213,7 +2213,7 @@
     <t>синтез</t>
   </si>
   <si>
-    <t>систем</t>
+    <t>система</t>
   </si>
   <si>
     <t>ситуация</t>
@@ -2246,7 +2246,7 @@
     <t>словоупотребление</t>
   </si>
   <si>
-    <t>словоформ</t>
+    <t>словоформа</t>
   </si>
   <si>
     <t>слог</t>
@@ -2357,7 +2357,7 @@
     <t>спектр</t>
   </si>
   <si>
-    <t>спектрограмм</t>
+    <t>спектрограмма</t>
   </si>
   <si>
     <t>специалист</t>
@@ -2402,7 +2402,7 @@
     <t>стандарт</t>
   </si>
   <si>
-    <t>статистик</t>
+    <t>статистика</t>
   </si>
   <si>
     <t>статья</t>
@@ -2417,7 +2417,7 @@
     <t>стемминг</t>
   </si>
   <si>
-    <t>стенограмм</t>
+    <t>стенограмма</t>
   </si>
   <si>
     <t>степень</t>
@@ -2453,10 +2453,10 @@
     <t>строй</t>
   </si>
   <si>
-    <t>строк</t>
-  </si>
-  <si>
-    <t>строчк</t>
+    <t>строка</t>
+  </si>
+  <si>
+    <t>строчка</t>
   </si>
   <si>
     <t>структур</t>
@@ -2528,10 +2528,10 @@
     <t>текст</t>
   </si>
   <si>
-    <t>тем</t>
-  </si>
-  <si>
-    <t>тематик</t>
+    <t>тема</t>
+  </si>
+  <si>
+    <t>тематика</t>
   </si>
   <si>
     <t>температур</t>
@@ -2783,7 +2783,7 @@
     <t>фильтрация</t>
   </si>
   <si>
-    <t>фич</t>
+    <t>фича</t>
   </si>
   <si>
     <t>форм</t>
@@ -2804,13 +2804,13 @@
     <t>формул</t>
   </si>
   <si>
-    <t>формулировк</t>
+    <t>формулировка</t>
   </si>
   <si>
     <t>фрагмент</t>
   </si>
   <si>
-    <t>фраз</t>
+    <t>фраза</t>
   </si>
   <si>
     <t>фреймворк</t>
@@ -2855,7 +2855,7 @@
     <t>цикл</t>
   </si>
   <si>
-    <t>цитат</t>
+    <t>цитата</t>
   </si>
   <si>
     <t>цитирование</t>
@@ -2864,7 +2864,7 @@
     <t>цифр</t>
   </si>
   <si>
-    <t>частот</t>
+    <t>частота</t>
   </si>
   <si>
     <t>частотность</t>
@@ -2912,7 +2912,7 @@
     <t>эволюция</t>
   </si>
   <si>
-    <t>эвристик</t>
+    <t>эвристика</t>
   </si>
   <si>
     <t>эквивалент</t>
@@ -2951,7 +2951,7 @@
     <t>энтузиаст</t>
   </si>
   <si>
-    <t>эпох</t>
+    <t>эпоха</t>
   </si>
   <si>
     <t>этап</t>
@@ -2985,7 +2985,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2996,13 +2996,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3470,28 +3463,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3500,118 +3496,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3968,8 +3961,8 @@
   <sheetPr/>
   <dimension ref="A1:G976"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A954" workbookViewId="0">
-      <selection activeCell="A964" sqref="A964"/>
+    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
+      <selection activeCell="J965" sqref="J965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4182,7 +4175,7 @@
         <v>0.0506665073335171</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4205,7 +4198,7 @@
         <v>0.0503418706357479</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4228,7 +4221,7 @@
         <v>0.14625009894371</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4251,7 +4244,7 @@
         <v>0.417094975709915</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4297,7 +4290,7 @@
         <v>0.156002908945084</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4803,7 +4796,7 @@
         <v>0.348082035779953</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4826,7 +4819,7 @@
         <v>0.102679498493671</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4849,7 +4842,7 @@
         <v>0.839520573616028</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4895,7 +4888,7 @@
         <v>0.088384533300996</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4964,7 +4957,7 @@
         <v>0.451881140470505</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5056,7 +5049,7 @@
         <v>0.0795826762914658</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5125,7 +5118,7 @@
         <v>0.156737104058266</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5148,7 +5141,7 @@
         <v>0.0598357431590557</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5447,7 +5440,7 @@
         <v>0.0829271525144577</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5585,7 +5578,7 @@
         <v>0.187729746103287</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5677,7 +5670,7 @@
         <v>0.0625473633408546</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5723,7 +5716,7 @@
         <v>0.676971256732941</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5769,7 +5762,7 @@
         <v>0.0540062822401524</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5792,7 +5785,7 @@
         <v>0.191273957490921</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5838,7 +5831,7 @@
         <v>0.0516631789505482</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5861,7 +5854,7 @@
         <v>0.067761667072773</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5976,7 +5969,7 @@
         <v>0.0812113061547279</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5999,7 +5992,7 @@
         <v>0.0520975105464458</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6045,7 +6038,7 @@
         <v>0.0546751096844673</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6137,7 +6130,7 @@
         <v>0.418946981430054</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6252,7 +6245,7 @@
         <v>0.121547065675259</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6344,7 +6337,7 @@
         <v>0.0626889616250992</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -6413,7 +6406,7 @@
         <v>0.0544794425368309</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -6643,7 +6636,7 @@
         <v>0.0548381917178631</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6873,7 +6866,7 @@
         <v>0.777427852153778</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -7402,7 +7395,7 @@
         <v>0.169770061969757</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -7517,7 +7510,7 @@
         <v>0.190846979618073</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -7586,7 +7579,7 @@
         <v>0.636406004428864</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -7632,7 +7625,7 @@
         <v>0.11347022652626</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7885,7 +7878,7 @@
         <v>0.429546922445297</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -7954,7 +7947,7 @@
         <v>0.905117869377136</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -7977,7 +7970,7 @@
         <v>0.298568844795227</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -8207,7 +8200,7 @@
         <v>0.0524373129010201</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -8368,7 +8361,7 @@
         <v>0.0953750684857368</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -8575,7 +8568,7 @@
         <v>0.58597868680954</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -8598,7 +8591,7 @@
         <v>0.0657608881592751</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -8644,7 +8637,7 @@
         <v>0.0545732267200947</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -8690,7 +8683,7 @@
         <v>0.641722857952118</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -8736,7 +8729,7 @@
         <v>0.0533056408166885</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8805,7 +8798,7 @@
         <v>0.745003521442413</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -8828,7 +8821,7 @@
         <v>0.0513056889176369</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -9058,7 +9051,7 @@
         <v>0.0600656382739544</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -9311,7 +9304,7 @@
         <v>0.316549390554428</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -9426,7 +9419,7 @@
         <v>0.352895349264145</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -9449,7 +9442,7 @@
         <v>0.533528387546539</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -9472,7 +9465,7 @@
         <v>0.0786261931061745</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -9564,7 +9557,7 @@
         <v>0.0517566464841366</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -9679,7 +9672,7 @@
         <v>0.0812626034021378</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -9840,7 +9833,7 @@
         <v>0.0534761026501656</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -9909,7 +9902,7 @@
         <v>0.0802846550941467</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -10323,7 +10316,7 @@
         <v>0.449240356683731</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -10438,7 +10431,7 @@
         <v>0.0955617353320122</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -10944,7 +10937,7 @@
         <v>0.0564280562102795</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -11266,7 +11259,7 @@
         <v>0.086810439825058</v>
       </c>
       <c r="G317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -11703,7 +11696,7 @@
         <v>0.0505216754972935</v>
       </c>
       <c r="G336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -11726,7 +11719,7 @@
         <v>0.315708786249161</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -11887,7 +11880,7 @@
         <v>0.0520975105464458</v>
       </c>
       <c r="G344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -11910,7 +11903,7 @@
         <v>0.0643837824463844</v>
       </c>
       <c r="G345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -11933,7 +11926,7 @@
         <v>0.079579196870327</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -12002,7 +11995,7 @@
         <v>0.256200313568115</v>
       </c>
       <c r="G349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -12209,7 +12202,7 @@
         <v>0.618879437446594</v>
       </c>
       <c r="G358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -12232,7 +12225,7 @@
         <v>0.173581317067146</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -12715,7 +12708,7 @@
         <v>0.121754616498947</v>
       </c>
       <c r="G380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -12899,7 +12892,7 @@
         <v>0.0585259832441807</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -12922,7 +12915,7 @@
         <v>0.423446267843247</v>
       </c>
       <c r="G389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -13060,7 +13053,7 @@
         <v>0.0510273650288582</v>
       </c>
       <c r="G395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -13796,7 +13789,7 @@
         <v>0.0638640448451042</v>
       </c>
       <c r="G427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -13934,7 +13927,7 @@
         <v>0.0689316466450691</v>
       </c>
       <c r="G433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -14003,7 +13996,7 @@
         <v>0.064283661544323</v>
       </c>
       <c r="G436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -14072,7 +14065,7 @@
         <v>0.193222001194954</v>
       </c>
       <c r="G439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15337,7 +15330,7 @@
         <v>0.0689972415566444</v>
       </c>
       <c r="G494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -15360,7 +15353,7 @@
         <v>0.165903121232987</v>
       </c>
       <c r="G495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -15659,7 +15652,7 @@
         <v>0.14168156683445</v>
       </c>
       <c r="G508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -15843,7 +15836,7 @@
         <v>0.0863150134682655</v>
       </c>
       <c r="G516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -15935,7 +15928,7 @@
         <v>0.750574290752411</v>
       </c>
       <c r="G520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -16096,7 +16089,7 @@
         <v>0.455121904611588</v>
       </c>
       <c r="G527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -16234,7 +16227,7 @@
         <v>0.0528887398540974</v>
       </c>
       <c r="G533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -16349,7 +16342,7 @@
         <v>0.0798902660608292</v>
       </c>
       <c r="G538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -16395,7 +16388,7 @@
         <v>0.0665238425135612</v>
       </c>
       <c r="G540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -16487,7 +16480,7 @@
         <v>0.0934906378388405</v>
       </c>
       <c r="G544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -16740,7 +16733,7 @@
         <v>0.0762827768921852</v>
       </c>
       <c r="G555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -17637,7 +17630,7 @@
         <v>0.0625320747494698</v>
       </c>
       <c r="G594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -17683,7 +17676,7 @@
         <v>0.10307152569294</v>
       </c>
       <c r="G596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -17706,7 +17699,7 @@
         <v>0.323838084936142</v>
       </c>
       <c r="G597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -17729,7 +17722,7 @@
         <v>0.869053781032562</v>
       </c>
       <c r="G598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -17844,7 +17837,7 @@
         <v>0.285301417112351</v>
       </c>
       <c r="G603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -17867,7 +17860,7 @@
         <v>0.0652135014533997</v>
       </c>
       <c r="G604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -17890,7 +17883,7 @@
         <v>0.0788909643888474</v>
       </c>
       <c r="G605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -18258,7 +18251,7 @@
         <v>0.110076412558556</v>
       </c>
       <c r="G621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -18741,7 +18734,7 @@
         <v>0.0515409745275974</v>
       </c>
       <c r="G642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -18810,7 +18803,7 @@
         <v>0.0576475933194161</v>
       </c>
       <c r="G645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -18833,7 +18826,7 @@
         <v>0.572748303413391</v>
       </c>
       <c r="G646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -18856,7 +18849,7 @@
         <v>0.125252589583397</v>
       </c>
       <c r="G647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -18879,7 +18872,7 @@
         <v>0.0617246478796005</v>
       </c>
       <c r="G648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -19040,7 +19033,7 @@
         <v>0.0659915283322334</v>
       </c>
       <c r="G655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -19178,7 +19171,7 @@
         <v>0.224821090698242</v>
       </c>
       <c r="G661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -19477,7 +19470,7 @@
         <v>0.536043703556061</v>
       </c>
       <c r="G674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -19500,7 +19493,7 @@
         <v>0.894986212253571</v>
       </c>
       <c r="G675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -19592,7 +19585,7 @@
         <v>0.551016628742218</v>
       </c>
       <c r="G679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -19730,7 +19723,7 @@
         <v>0.0570165514945984</v>
       </c>
       <c r="G685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -19914,7 +19907,7 @@
         <v>0.394091784954071</v>
       </c>
       <c r="G693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:7">
@@ -20420,7 +20413,7 @@
         <v>0.0506665073335171</v>
       </c>
       <c r="G715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:7">
@@ -20673,7 +20666,7 @@
         <v>0.128186866641045</v>
       </c>
       <c r="G726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -21225,7 +21218,7 @@
         <v>0.0534586682915688</v>
       </c>
       <c r="G750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:7">
@@ -21317,7 +21310,7 @@
         <v>0.0595290660858154</v>
       </c>
       <c r="G754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:7">
@@ -21386,7 +21379,7 @@
         <v>0.127684086561203</v>
       </c>
       <c r="G757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:7">
@@ -21409,7 +21402,7 @@
         <v>0.0547426603734493</v>
       </c>
       <c r="G758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:7">
@@ -21731,7 +21724,7 @@
         <v>0.139977321028709</v>
       </c>
       <c r="G772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:7">
@@ -21800,7 +21793,7 @@
         <v>0.409492671489716</v>
       </c>
       <c r="G775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:7">
@@ -22467,7 +22460,7 @@
         <v>0.620704054832458</v>
       </c>
       <c r="G804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:7">
@@ -22927,7 +22920,7 @@
         <v>0.245152831077576</v>
       </c>
       <c r="G824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:7">
@@ -22950,7 +22943,7 @@
         <v>0.928938627243042</v>
       </c>
       <c r="G825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:7">
@@ -23203,7 +23196,7 @@
         <v>0.207756161689758</v>
       </c>
       <c r="G836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:7">
@@ -23226,7 +23219,7 @@
         <v>0.0877760946750641</v>
       </c>
       <c r="G837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:7">
@@ -23548,7 +23541,7 @@
         <v>0.0598798654973507</v>
       </c>
       <c r="G851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:7">
@@ -23732,7 +23725,7 @@
         <v>0.492437958717346</v>
       </c>
       <c r="G859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:7">
@@ -24468,7 +24461,7 @@
         <v>0.687589108943939</v>
       </c>
       <c r="G891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:7">
@@ -24629,7 +24622,7 @@
         <v>0.0758069157600403</v>
       </c>
       <c r="G898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:7">
@@ -24767,7 +24760,7 @@
         <v>0.0524391755461693</v>
       </c>
       <c r="G904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:7">
@@ -24974,7 +24967,7 @@
         <v>0.350153803825378</v>
       </c>
       <c r="G913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:7">
@@ -25135,7 +25128,7 @@
         <v>0.0598562844097614</v>
       </c>
       <c r="G920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:7">
@@ -25250,7 +25243,7 @@
         <v>0.0593674555420875</v>
       </c>
       <c r="G925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:7">
@@ -25296,7 +25289,7 @@
         <v>0.211512982845306</v>
       </c>
       <c r="G927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:7">
@@ -25595,7 +25588,7 @@
         <v>0.0551236309111118</v>
       </c>
       <c r="G940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -25687,7 +25680,7 @@
         <v>0.059304054826498</v>
       </c>
       <c r="G944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -25963,7 +25956,7 @@
         <v>0.108110196888447</v>
       </c>
       <c r="G956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:7">
@@ -26147,7 +26140,7 @@
         <v>0.0725026652216911</v>
       </c>
       <c r="G964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:7">
@@ -26193,7 +26186,7 @@
         <v>0.0503195263445377</v>
       </c>
       <c r="G966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:7">
@@ -26216,7 +26209,7 @@
         <v>0.130113512277603</v>
       </c>
       <c r="G967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:7">
@@ -26400,7 +26393,7 @@
         <v>0.0503195263445377</v>
       </c>
       <c r="G975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:7">
